--- a/Cues_Adm_30th sept.xlsx
+++ b/Cues_Adm_30th sept.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\personal\Pattern Recognition And Machine Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDCB1D56-FE16-4BC0-9ABE-0DA1F3A8E95F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82CDD6C9-5C2A-4BE1-A264-FAC3BED134AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pivot " sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="124519"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="2" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -635,7 +635,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D4E3C047-5A5E-48F4-9CC7-F6A222144EAC}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D4E3C047-5A5E-48F4-9CC7-F6A222144EAC}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A1:C20" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
@@ -1077,7 +1077,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4A8ACFC-0C40-4C54-8F2A-E15B11EF8FA3}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -1317,8 +1317,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
